--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2164.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2164.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.601830189504702</v>
+        <v>1.101290106773376</v>
       </c>
       <c r="B1">
-        <v>3.242346062889717</v>
+        <v>2.282293796539307</v>
       </c>
       <c r="C1">
-        <v>3.203732619943215</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9356301189702934</v>
+        <v>1.503005027770996</v>
       </c>
       <c r="E1">
-        <v>0.5732718188893072</v>
+        <v>0.9801836013793945</v>
       </c>
     </row>
   </sheetData>
